--- a/biology/Médecine/Muscle_grand_zygomatique/Muscle_grand_zygomatique.xlsx
+++ b/biology/Médecine/Muscle_grand_zygomatique/Muscle_grand_zygomatique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle grand zygomatique est un muscle de la face.
 </t>
@@ -511,17 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle grand zygomatique s'étend obliquement de la pommette à la commissure des lèvres[1].
-Insertions crâniales (origine)
-Il s'insère sur la face externe de l'os malaire, un peu en dehors du petit zygomatique.
-Trajet
-Il se porte en bas et en avant et gagne la commissure des lèvres.
-Rapports
-Il est en dehors du muscle petit zygomatique, en avant du muscle buccinateur dont il est séparé par le corps adipeux de la bouche. L’artère faciale et la veine faciale passent en dessous de lui. Superficiellement, il répond à la peau, dont il est séparé par une couche de graisse.
-Insertions caudales (terminaison)
-Il se termine à la commissure des lèvres où il se termine a la face profonde des téguments où il mélange ses fibres avec l'orbiculaire de la bouche, le muscle triangulaire des lèvres et le muscle canin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle grand zygomatique s'étend obliquement de la pommette à la commissure des lèvres.
 </t>
         </is>
       </c>
@@ -547,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Innervation et vascularisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est innervé par la branche zygomatique du nerf facial. Le muscle est vascularisé par l'artère faciale.
+          <t>Insertions crâniales (origine)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'insère sur la face externe de l'os malaire, un peu en dehors du petit zygomatique.
 </t>
         </is>
       </c>
@@ -578,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Variantes</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le grand zygomatique peut manquer. Il peut être double, soit dans toute son étendue, soit a l'une de ses extrémités seulement. Il peut présenter des connexions plus ou moins étendues avec le muscle petit zygomatique, l'orbiculaire des paupières, le triangulaire des lèvres ou même avec le muscle risorius[2].
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se porte en bas et en avant et gagne la commissure des lèvres.
 </t>
         </is>
       </c>
@@ -609,13 +627,155 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Rapports</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est en dehors du muscle petit zygomatique, en avant du muscle buccinateur dont il est séparé par le corps adipeux de la bouche. L’artère faciale et la veine faciale passent en dessous de lui. Superficiellement, il répond à la peau, dont il est séparé par une couche de graisse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscle_grand_zygomatique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_grand_zygomatique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Insertions caudales (terminaison)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se termine à la commissure des lèvres où il se termine a la face profonde des téguments où il mélange ses fibres avec l'orbiculaire de la bouche, le muscle triangulaire des lèvres et le muscle canin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscle_grand_zygomatique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_grand_zygomatique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Innervation et vascularisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est innervé par la branche zygomatique du nerf facial. Le muscle est vascularisé par l'artère faciale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscle_grand_zygomatique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_grand_zygomatique</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Variantes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand zygomatique peut manquer. Il peut être double, soit dans toute son étendue, soit a l'une de ses extrémités seulement. Il peut présenter des connexions plus ou moins étendues avec le muscle petit zygomatique, l'orbiculaire des paupières, le triangulaire des lèvres ou même avec le muscle risorius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscle_grand_zygomatique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscle_grand_zygomatique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Action</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa contraction permet l'ascension de l'angle de la bouche et l'accentuation du sillon naso-génien, facilitant ainsi la grimace et le sourire[2]. Il découvre les canines.
-C’est le muscle de la joie de Duchenne de Boulogne, dont la contraction produit d’importantes modifications faciales. Au-delà de l'ascension de la commissure, elle accuse le galbe de la pommette en refoulant les parties molles de la joue, élève la paupière inférieure, et crée le plissement cutané connu sous le nom de ride de la patte d'oie. Cette dernière fonction s'explique par les connexions étroites existant entre les muscles grand zygomatique et orbiculaire de l’œil[3].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa contraction permet l'ascension de l'angle de la bouche et l'accentuation du sillon naso-génien, facilitant ainsi la grimace et le sourire. Il découvre les canines.
+C’est le muscle de la joie de Duchenne de Boulogne, dont la contraction produit d’importantes modifications faciales. Au-delà de l'ascension de la commissure, elle accuse le galbe de la pommette en refoulant les parties molles de la joue, élève la paupière inférieure, et crée le plissement cutané connu sous le nom de ride de la patte d'oie. Cette dernière fonction s'explique par les connexions étroites existant entre les muscles grand zygomatique et orbiculaire de l’œil.
 </t>
         </is>
       </c>
